--- a/Data/Season2/Transect datasheets (Responses).xlsx
+++ b/Data/Season2/Transect datasheets (Responses).xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="27">
   <si>
     <t>Timestamp</t>
   </si>
@@ -4415,6 +4415,735 @@
         <v>0.75</v>
       </c>
     </row>
+    <row r="88">
+      <c r="A88" s="1">
+        <v>43332.65293115741</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D88" s="3">
+        <v>43326.0</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I88" s="2">
+        <v>30.0</v>
+      </c>
+      <c r="J88" s="2">
+        <v>13.0</v>
+      </c>
+      <c r="K88" s="2">
+        <v>45.2512</v>
+      </c>
+      <c r="L88" s="2">
+        <v>-95.07023</v>
+      </c>
+      <c r="M88" s="2">
+        <v>95.0</v>
+      </c>
+      <c r="N88" s="4">
+        <v>0.002442129625706002</v>
+      </c>
+      <c r="O88" s="4">
+        <v>0.0016898148169275373</v>
+      </c>
+      <c r="P88" s="4">
+        <v>0.0027314814797136933</v>
+      </c>
+      <c r="Q88" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1">
+        <v>43332.653517280094</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D89" s="3">
+        <v>43326.0</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I89" s="2">
+        <v>30.0</v>
+      </c>
+      <c r="J89" s="2">
+        <v>14.0</v>
+      </c>
+      <c r="K89" s="2">
+        <v>45.25428</v>
+      </c>
+      <c r="L89" s="2">
+        <v>-95.06863</v>
+      </c>
+      <c r="M89" s="2">
+        <v>115.0</v>
+      </c>
+      <c r="N89" s="4">
+        <v>0.001967592594155576</v>
+      </c>
+      <c r="O89" s="4">
+        <v>0.0014699074090458453</v>
+      </c>
+      <c r="P89" s="4">
+        <v>0.004074074073287193</v>
+      </c>
+      <c r="Q89" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1">
+        <v>43332.654121597225</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D90" s="3">
+        <v>43326.0</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I90" s="2">
+        <v>30.0</v>
+      </c>
+      <c r="J90" s="2">
+        <v>15.0</v>
+      </c>
+      <c r="K90" s="2">
+        <v>45.2569</v>
+      </c>
+      <c r="L90" s="2">
+        <v>-95.0664</v>
+      </c>
+      <c r="M90" s="2">
+        <v>110.0</v>
+      </c>
+      <c r="N90" s="4">
+        <v>0.0028125000026193447</v>
+      </c>
+      <c r="O90" s="4">
+        <v>0.0021064814791316167</v>
+      </c>
+      <c r="P90" s="4">
+        <v>0.0031134259261307307</v>
+      </c>
+      <c r="Q90" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1">
+        <v>43332.656396886574</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D91" s="3">
+        <v>43326.0</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H91" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I91" s="2">
+        <v>30.0</v>
+      </c>
+      <c r="J91" s="2">
+        <v>15.0</v>
+      </c>
+      <c r="K91" s="2">
+        <v>45.25689</v>
+      </c>
+      <c r="L91" s="2">
+        <v>-95.06645</v>
+      </c>
+      <c r="M91" s="2">
+        <v>120.0</v>
+      </c>
+      <c r="N91" s="4">
+        <v>0.005428240736364387</v>
+      </c>
+      <c r="O91" s="4">
+        <v>0.0019328703710925765</v>
+      </c>
+      <c r="P91" s="4">
+        <v>0.005810185182781424</v>
+      </c>
+      <c r="Q91" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1">
+        <v>43332.65708788195</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D92" s="3">
+        <v>43326.0</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H92" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I92" s="2">
+        <v>30.0</v>
+      </c>
+      <c r="J92" s="2">
+        <v>14.0</v>
+      </c>
+      <c r="K92" s="2">
+        <v>45.25429</v>
+      </c>
+      <c r="L92" s="2">
+        <v>-95.06862</v>
+      </c>
+      <c r="M92" s="2">
+        <v>100.0</v>
+      </c>
+      <c r="N92" s="4">
+        <v>0.003657407403807156</v>
+      </c>
+      <c r="O92" s="4">
+        <v>0.001527777778392192</v>
+      </c>
+      <c r="P92" s="4">
+        <v>0.005474537036207039</v>
+      </c>
+      <c r="Q92" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1">
+        <v>43332.65768975695</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D93" s="3">
+        <v>43326.0</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H93" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I93" s="2">
+        <v>30.0</v>
+      </c>
+      <c r="J93" s="2">
+        <v>13.0</v>
+      </c>
+      <c r="K93" s="2">
+        <v>45.25121</v>
+      </c>
+      <c r="L93" s="2">
+        <v>-95.07023</v>
+      </c>
+      <c r="M93" s="2">
+        <v>80.0</v>
+      </c>
+      <c r="N93" s="4">
+        <v>0.0034143518496421166</v>
+      </c>
+      <c r="O93" s="4">
+        <v>0.0017129629632108845</v>
+      </c>
+      <c r="P93" s="4">
+        <v>0.004826388889341615</v>
+      </c>
+      <c r="Q93" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1">
+        <v>43332.6584206713</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D94" s="3">
+        <v>43326.0</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H94" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I94" s="2">
+        <v>30.0</v>
+      </c>
+      <c r="J94" s="2">
+        <v>12.0</v>
+      </c>
+      <c r="K94" s="2">
+        <v>45.24731</v>
+      </c>
+      <c r="L94" s="2">
+        <v>-95.06965</v>
+      </c>
+      <c r="M94" s="2">
+        <v>65.0</v>
+      </c>
+      <c r="N94" s="4">
+        <v>0.0037037037036498077</v>
+      </c>
+      <c r="O94" s="4">
+        <v>0.0016898148169275373</v>
+      </c>
+      <c r="P94" s="4">
+        <v>0.004513888889050577</v>
+      </c>
+      <c r="Q94" s="2">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1">
+        <v>43332.65911978009</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D95" s="3">
+        <v>43326.0</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H95" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I95" s="2">
+        <v>30.0</v>
+      </c>
+      <c r="J95" s="2">
+        <v>11.0</v>
+      </c>
+      <c r="K95" s="2">
+        <v>45.24428</v>
+      </c>
+      <c r="L95" s="2">
+        <v>-95.06659</v>
+      </c>
+      <c r="M95" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="N95" s="4">
+        <v>0.003726851849933155</v>
+      </c>
+      <c r="O95" s="4">
+        <v>0.0016666666633682325</v>
+      </c>
+      <c r="P95" s="4">
+        <v>0.00462962962774327</v>
+      </c>
+      <c r="Q95" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1">
+        <v>43332.65980047453</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D96" s="3">
+        <v>43327.0</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H96" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I96" s="2">
+        <v>30.0</v>
+      </c>
+      <c r="J96" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="K96" s="2">
+        <v>45.24718</v>
+      </c>
+      <c r="L96" s="2">
+        <v>-95.05644</v>
+      </c>
+      <c r="M96" s="2">
+        <v>320.0</v>
+      </c>
+      <c r="N96" s="4">
+        <v>0.00555555555911269</v>
+      </c>
+      <c r="O96" s="4">
+        <v>0.001527777778392192</v>
+      </c>
+      <c r="P96" s="4">
+        <v>0.008182870369637385</v>
+      </c>
+      <c r="Q96" s="2">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1">
+        <v>43332.66041</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D97" s="3">
+        <v>43327.0</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H97" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I97" s="2">
+        <v>30.0</v>
+      </c>
+      <c r="J97" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="K97" s="2">
+        <v>45.24418</v>
+      </c>
+      <c r="L97" s="2">
+        <v>-95.06046</v>
+      </c>
+      <c r="M97" s="2">
+        <v>335.0</v>
+      </c>
+      <c r="N97" s="4">
+        <v>0.004583333335176576</v>
+      </c>
+      <c r="O97" s="4">
+        <v>0.001747685186273884</v>
+      </c>
+      <c r="P97" s="4">
+        <v>0.00555555555911269</v>
+      </c>
+      <c r="Q97" s="2">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1">
+        <v>43332.66148480324</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D98" s="3">
+        <v>43327.0</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I98" s="2">
+        <v>30.0</v>
+      </c>
+      <c r="J98" s="2">
+        <v>11.0</v>
+      </c>
+      <c r="K98" s="2">
+        <v>45.24429</v>
+      </c>
+      <c r="L98" s="2">
+        <v>-95.06665</v>
+      </c>
+      <c r="M98" s="2">
+        <v>25.0</v>
+      </c>
+      <c r="N98" s="4">
+        <v>0.003969907411374152</v>
+      </c>
+      <c r="O98" s="4">
+        <v>0.0015625000014551915</v>
+      </c>
+      <c r="P98" s="4">
+        <v>0.003229166664823424</v>
+      </c>
+      <c r="Q98" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1">
+        <v>43332.662280046294</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D99" s="3">
+        <v>43327.0</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I99" s="2">
+        <v>30.0</v>
+      </c>
+      <c r="J99" s="2">
+        <v>12.0</v>
+      </c>
+      <c r="K99" s="2">
+        <v>45.2474</v>
+      </c>
+      <c r="L99" s="2">
+        <v>-95.06975</v>
+      </c>
+      <c r="M99" s="2">
+        <v>60.0</v>
+      </c>
+      <c r="N99" s="4">
+        <v>0.003599537034460809</v>
+      </c>
+      <c r="O99" s="4">
+        <v>0.001631944440305233</v>
+      </c>
+      <c r="P99" s="4">
+        <v>0.003506944442051463</v>
+      </c>
+      <c r="Q99" s="2">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1">
+        <v>43332.66296215278</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D100" s="3">
+        <v>43327.0</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I100" s="2">
+        <v>30.0</v>
+      </c>
+      <c r="J100" s="2">
+        <v>13.0</v>
+      </c>
+      <c r="K100" s="2">
+        <v>45.25124</v>
+      </c>
+      <c r="L100" s="2">
+        <v>-95.07021</v>
+      </c>
+      <c r="M100" s="2">
+        <v>80.0</v>
+      </c>
+      <c r="N100" s="4">
+        <v>0.0036921296268701553</v>
+      </c>
+      <c r="O100" s="4">
+        <v>0.0019907407404389232</v>
+      </c>
+      <c r="P100" s="4">
+        <v>0.003912037034751847</v>
+      </c>
+      <c r="Q100" s="2">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1">
+        <v>43332.66386605324</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D101" s="3">
+        <v>43327.0</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I101" s="2">
+        <v>30.0</v>
+      </c>
+      <c r="J101" s="2">
+        <v>14.0</v>
+      </c>
+      <c r="K101" s="2">
+        <v>45.25433</v>
+      </c>
+      <c r="L101" s="2">
+        <v>-95.0686</v>
+      </c>
+      <c r="M101" s="2">
+        <v>90.0</v>
+      </c>
+      <c r="N101" s="4">
+        <v>0.003564814818673767</v>
+      </c>
+      <c r="O101" s="4">
+        <v>0.002025462963501923</v>
+      </c>
+      <c r="P101" s="4">
+        <v>0.0033333333340124227</v>
+      </c>
+      <c r="Q101" s="2">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1">
+        <v>43332.66446453704</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D102" s="3">
+        <v>43327.0</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I102" s="2">
+        <v>30.0</v>
+      </c>
+      <c r="J102" s="2">
+        <v>15.0</v>
+      </c>
+      <c r="K102" s="2">
+        <v>45.25692</v>
+      </c>
+      <c r="L102" s="2">
+        <v>-95.06639</v>
+      </c>
+      <c r="M102" s="2">
+        <v>120.0</v>
+      </c>
+      <c r="N102" s="4">
+        <v>0.003958333334594499</v>
+      </c>
+      <c r="O102" s="4">
+        <v>0.0017592592630535364</v>
+      </c>
+      <c r="P102" s="4">
+        <v>0.003125000002910383</v>
+      </c>
+      <c r="Q102" s="2">
+        <v>1.25</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Data/Season2/Transect datasheets (Responses).xlsx
+++ b/Data/Season2/Transect datasheets (Responses).xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="27">
   <si>
     <t>Timestamp</t>
   </si>
@@ -5144,6 +5144,873 @@
         <v>1.25</v>
       </c>
     </row>
+    <row r="103">
+      <c r="A103" s="1">
+        <v>43339.45383068287</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D103" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H103" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I103" s="2">
+        <v>18.0</v>
+      </c>
+      <c r="J103" s="2">
+        <v>11.0</v>
+      </c>
+      <c r="K103" s="2">
+        <v>45.76223</v>
+      </c>
+      <c r="L103" s="2">
+        <v>-94.79833</v>
+      </c>
+      <c r="M103" s="2">
+        <v>275.0</v>
+      </c>
+      <c r="N103" s="4">
+        <v>0.0014699074090458453</v>
+      </c>
+      <c r="O103" s="4">
+        <v>0.0012384259243845008</v>
+      </c>
+      <c r="P103" s="4">
+        <v>0.0116666666654055</v>
+      </c>
+      <c r="Q103" s="2">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1">
+        <v>43339.45461554398</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D104" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H104" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I104" s="2">
+        <v>22.0</v>
+      </c>
+      <c r="J104" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="K104" s="2">
+        <v>45.76801</v>
+      </c>
+      <c r="L104" s="2">
+        <v>-94.80041</v>
+      </c>
+      <c r="M104" s="2">
+        <v>300.0</v>
+      </c>
+      <c r="N104" s="4">
+        <v>0.0015046296321088448</v>
+      </c>
+      <c r="O104" s="4">
+        <v>0.0011921296318178065</v>
+      </c>
+      <c r="P104" s="4">
+        <v>0.010833333333721384</v>
+      </c>
+      <c r="Q104" s="2">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1">
+        <v>43339.4560662963</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D105" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H105" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I105" s="2">
+        <v>12.0</v>
+      </c>
+      <c r="J105" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="K105" s="2">
+        <v>45.77292</v>
+      </c>
+      <c r="L105" s="2">
+        <v>-94.80136</v>
+      </c>
+      <c r="M105" s="2">
+        <v>315.0</v>
+      </c>
+      <c r="N105" s="4">
+        <v>0.001111111108912155</v>
+      </c>
+      <c r="O105" s="4">
+        <v>8.333333316841163E-4</v>
+      </c>
+      <c r="P105" s="4">
+        <v>0.008784722223936114</v>
+      </c>
+      <c r="Q105" s="2">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1">
+        <v>43339.45690800926</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D106" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H106" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I106" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="J106" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="K106" s="2">
+        <v>45.77744</v>
+      </c>
+      <c r="L106" s="2">
+        <v>-94.79878</v>
+      </c>
+      <c r="M106" s="2">
+        <v>310.0</v>
+      </c>
+      <c r="N106" s="4">
+        <v>9.259259240934625E-4</v>
+      </c>
+      <c r="O106" s="4">
+        <v>7.87037039117422E-4</v>
+      </c>
+      <c r="P106" s="4">
+        <v>0.008217592592700385</v>
+      </c>
+      <c r="Q106" s="2">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1">
+        <v>43339.45793721065</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D107" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H107" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I107" s="2">
+        <v>14.0</v>
+      </c>
+      <c r="J107" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="K107" s="2">
+        <v>45.78306</v>
+      </c>
+      <c r="L107" s="2">
+        <v>-94.79498</v>
+      </c>
+      <c r="M107" s="2">
+        <v>285.0</v>
+      </c>
+      <c r="N107" s="4">
+        <v>0.001331018516793847</v>
+      </c>
+      <c r="O107" s="4">
+        <v>8.680555547471158E-4</v>
+      </c>
+      <c r="P107" s="4">
+        <v>0.010277777779265307</v>
+      </c>
+      <c r="Q107" s="2">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1">
+        <v>43339.45941582176</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D108" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H108" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I108" s="2">
+        <v>20.0</v>
+      </c>
+      <c r="J108" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="K108" s="2">
+        <v>45.78365</v>
+      </c>
+      <c r="L108" s="2">
+        <v>-94.78806</v>
+      </c>
+      <c r="M108" s="2">
+        <v>60.0</v>
+      </c>
+      <c r="N108" s="4">
+        <v>0.0014351851859828457</v>
+      </c>
+      <c r="O108" s="4">
+        <v>9.722222239361145E-4</v>
+      </c>
+      <c r="P108" s="4">
+        <v>0.013981481482915115</v>
+      </c>
+      <c r="Q108" s="2">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1">
+        <v>43339.460224131944</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D109" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H109" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I109" s="2">
+        <v>26.0</v>
+      </c>
+      <c r="J109" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="K109" s="2">
+        <v>45.77947</v>
+      </c>
+      <c r="L109" s="2">
+        <v>-94.78256</v>
+      </c>
+      <c r="M109" s="2">
+        <v>320.0</v>
+      </c>
+      <c r="N109" s="4">
+        <v>0.001678240740147885</v>
+      </c>
+      <c r="O109" s="4">
+        <v>0.0012962962937308475</v>
+      </c>
+      <c r="P109" s="4">
+        <v>0.012766203704813961</v>
+      </c>
+      <c r="Q109" s="2">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1">
+        <v>43339.46091677083</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D110" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H110" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I110" s="2">
+        <v>20.0</v>
+      </c>
+      <c r="J110" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="K110" s="2">
+        <v>45.78445</v>
+      </c>
+      <c r="L110" s="2">
+        <v>-94.77834</v>
+      </c>
+      <c r="M110" s="2">
+        <v>250.0</v>
+      </c>
+      <c r="N110" s="4">
+        <v>0.0011689814855344594</v>
+      </c>
+      <c r="O110" s="4">
+        <v>8.91203701030463E-4</v>
+      </c>
+      <c r="P110" s="4">
+        <v>0.010625000002619345</v>
+      </c>
+      <c r="Q110" s="2">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1">
+        <v>43339.4617322338</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D111" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H111" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I111" s="2">
+        <v>28.0</v>
+      </c>
+      <c r="J111" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="K111" s="2">
+        <v>45.79258</v>
+      </c>
+      <c r="L111" s="2">
+        <v>-94.78363</v>
+      </c>
+      <c r="M111" s="2">
+        <v>245.0</v>
+      </c>
+      <c r="N111" s="4">
+        <v>0.0015509259246755391</v>
+      </c>
+      <c r="O111" s="4">
+        <v>0.0011805555550381541</v>
+      </c>
+      <c r="P111" s="4">
+        <v>0.014004629629198462</v>
+      </c>
+      <c r="Q111" s="2">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1">
+        <v>43339.46246686342</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D112" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H112" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I112" s="2">
+        <v>14.0</v>
+      </c>
+      <c r="J112" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="K112" s="2">
+        <v>45.79403</v>
+      </c>
+      <c r="L112" s="2">
+        <v>-94.79369</v>
+      </c>
+      <c r="M112" s="2">
+        <v>120.0</v>
+      </c>
+      <c r="N112" s="4">
+        <v>0.0013541666703531519</v>
+      </c>
+      <c r="O112" s="4">
+        <v>0.0011342592624714598</v>
+      </c>
+      <c r="P112" s="4">
+        <v>0.006377314814017154</v>
+      </c>
+      <c r="Q112" s="2">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1">
+        <v>43339.46452400463</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D113" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H113" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I113" s="2">
+        <v>20.0</v>
+      </c>
+      <c r="J113" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="K113" s="2">
+        <v>45.78797</v>
+      </c>
+      <c r="L113" s="2">
+        <v>-94.79337</v>
+      </c>
+      <c r="M113" s="2">
+        <v>100.0</v>
+      </c>
+      <c r="N113" s="4">
+        <v>0.001157407408754807</v>
+      </c>
+      <c r="O113" s="4">
+        <v>0.0010648148163454607</v>
+      </c>
+      <c r="P113" s="4">
+        <v>0.011481481480586808</v>
+      </c>
+      <c r="Q113" s="2">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1">
+        <v>43339.46731096065</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D114" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I114" s="2">
+        <v>13.0</v>
+      </c>
+      <c r="J114" s="2">
+        <v>12.0</v>
+      </c>
+      <c r="K114" s="2">
+        <v>45.76497</v>
+      </c>
+      <c r="L114" s="2">
+        <v>-94.80565</v>
+      </c>
+      <c r="M114" s="2">
+        <v>60.0</v>
+      </c>
+      <c r="N114" s="4">
+        <v>0.004027777773444541</v>
+      </c>
+      <c r="O114" s="4">
+        <v>0.0011689814855344594</v>
+      </c>
+      <c r="P114" s="4">
+        <v>0.007581018522614613</v>
+      </c>
+      <c r="Q114" s="2">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1">
+        <v>43339.46915204861</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D115" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I115" s="2">
+        <v>19.0</v>
+      </c>
+      <c r="J115" s="2">
+        <v>11.0</v>
+      </c>
+      <c r="K115" s="2">
+        <v>45.76175</v>
+      </c>
+      <c r="L115" s="2">
+        <v>-94.79804</v>
+      </c>
+      <c r="M115" s="2">
+        <v>270.0</v>
+      </c>
+      <c r="N115" s="4">
+        <v>0.004583333335176576</v>
+      </c>
+      <c r="O115" s="4">
+        <v>0.0017939814788405783</v>
+      </c>
+      <c r="P115" s="4">
+        <v>0.02071759258979</v>
+      </c>
+      <c r="Q115" s="2">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1">
+        <v>43339.47008313658</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D116" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I116" s="2">
+        <v>20.0</v>
+      </c>
+      <c r="J116" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="K116" s="2">
+        <v>45.7687</v>
+      </c>
+      <c r="L116" s="2">
+        <v>-94.80112</v>
+      </c>
+      <c r="M116" s="2">
+        <v>290.0</v>
+      </c>
+      <c r="N116" s="4">
+        <v>0.0036111111112404615</v>
+      </c>
+      <c r="O116" s="4">
+        <v>0.00148148147854954</v>
+      </c>
+      <c r="P116" s="4">
+        <v>0.0071064814837882295</v>
+      </c>
+      <c r="Q116" s="2">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1">
+        <v>43339.47086568287</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D117" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I117" s="2">
+        <v>12.0</v>
+      </c>
+      <c r="J117" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="K117" s="2">
+        <v>45.77284</v>
+      </c>
+      <c r="L117" s="2">
+        <v>-94.80145</v>
+      </c>
+      <c r="M117" s="2">
+        <v>330.0</v>
+      </c>
+      <c r="N117" s="4">
+        <v>0.003298611110949423</v>
+      </c>
+      <c r="O117" s="4">
+        <v>0.0010532407395658083</v>
+      </c>
+      <c r="P117" s="4">
+        <v>0.01608796296204673</v>
+      </c>
+      <c r="Q117" s="2">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1">
+        <v>43339.471509375</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D118" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I118" s="2">
+        <v>11.0</v>
+      </c>
+      <c r="J118" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="K118" s="2">
+        <v>45.77736</v>
+      </c>
+      <c r="L118" s="2">
+        <v>-94.7988</v>
+      </c>
+      <c r="M118" s="2">
+        <v>340.0</v>
+      </c>
+      <c r="N118" s="4">
+        <v>0.0030902777798473835</v>
+      </c>
+      <c r="O118" s="4">
+        <v>7.87037039117422E-4</v>
+      </c>
+      <c r="P118" s="4">
+        <v>0.016018518515920732</v>
+      </c>
+      <c r="Q118" s="2">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1">
+        <v>43339.472419259255</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D119" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I119" s="2">
+        <v>16.0</v>
+      </c>
+      <c r="J119" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="K119" s="2">
+        <v>45.78196</v>
+      </c>
+      <c r="L119" s="2">
+        <v>-94.79467</v>
+      </c>
+      <c r="M119" s="2">
+        <v>275.0</v>
+      </c>
+      <c r="N119" s="4">
+        <v>0.003078703703067731</v>
+      </c>
+      <c r="O119" s="4">
+        <v>0.0014467592554865405</v>
+      </c>
+      <c r="P119" s="4">
+        <v>0.0196180555576575</v>
+      </c>
+      <c r="Q119" s="2">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1">
+        <v>43339.473133657404</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D120" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I120" s="2">
+        <v>24.0</v>
+      </c>
+      <c r="J120" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="K120" s="2">
+        <v>45.78364</v>
+      </c>
+      <c r="L120" s="2">
+        <v>-94.78804</v>
+      </c>
+      <c r="M120" s="2">
+        <v>90.0</v>
+      </c>
+      <c r="N120" s="4">
+        <v>0.004293981481168885</v>
+      </c>
+      <c r="O120" s="4">
+        <v>0.0015046296321088448</v>
+      </c>
+      <c r="P120" s="4">
+        <v>0.036585648151231</v>
+      </c>
+      <c r="Q120" s="2">
+        <v>2.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Data/Season2/Transect datasheets (Responses).xlsx
+++ b/Data/Season2/Transect datasheets (Responses).xlsx
@@ -3153,6 +3153,9 @@
       <c r="H61" s="2" t="s">
         <v>24</v>
       </c>
+      <c r="I61" s="2">
+        <v>28.0</v>
+      </c>
       <c r="J61" s="2">
         <v>1.0</v>
       </c>
@@ -3197,6 +3200,9 @@
       <c r="H62" s="2" t="s">
         <v>24</v>
       </c>
+      <c r="I62" s="2">
+        <v>28.0</v>
+      </c>
       <c r="J62" s="2">
         <v>2.0</v>
       </c>
@@ -3241,6 +3247,9 @@
       <c r="H63" s="2" t="s">
         <v>24</v>
       </c>
+      <c r="I63" s="2">
+        <v>28.0</v>
+      </c>
       <c r="J63" s="2">
         <v>3.0</v>
       </c>
@@ -3285,6 +3294,9 @@
       <c r="H64" s="2" t="s">
         <v>24</v>
       </c>
+      <c r="I64" s="2">
+        <v>28.0</v>
+      </c>
       <c r="J64" s="2">
         <v>4.0</v>
       </c>
@@ -3329,6 +3341,9 @@
       <c r="H65" s="2" t="s">
         <v>24</v>
       </c>
+      <c r="I65" s="2">
+        <v>28.0</v>
+      </c>
       <c r="J65" s="2">
         <v>5.0</v>
       </c>
@@ -3373,6 +3388,9 @@
       <c r="H66" s="2" t="s">
         <v>24</v>
       </c>
+      <c r="I66" s="2">
+        <v>28.0</v>
+      </c>
       <c r="J66" s="2">
         <v>6.0</v>
       </c>
@@ -3417,6 +3435,9 @@
       <c r="H67" s="2" t="s">
         <v>24</v>
       </c>
+      <c r="I67" s="2">
+        <v>28.0</v>
+      </c>
       <c r="J67" s="2">
         <v>7.0</v>
       </c>
@@ -3460,6 +3481,9 @@
       </c>
       <c r="H68" s="2" t="s">
         <v>24</v>
+      </c>
+      <c r="I68" s="2">
+        <v>28.0</v>
       </c>
       <c r="J68" s="2">
         <v>8.0</v>
